--- a/excel/stay_202310.xlsx
+++ b/excel/stay_202310.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10395</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3000</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,980</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,995</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,400</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,592</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21,967</t>
         </is>
       </c>
     </row>
